--- a/resource/40.design/440.development/[Saturn]449.crawling/18두뇌및기억력.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.crawling/18두뇌및기억력.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449.crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="18두뇌및기억력 - 복사본" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001077/1000001077_main_076.jpg</t>
   </si>
@@ -91,75 +91,6 @@
   </si>
   <si>
     <t>컨트리라이프 오메가3 피쉬오일 1,000mg 100소프트겔</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000769/1000000769_main_058.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 오메가3 1000mg 200피쉬소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/10/1000001230/1000001230_main_061.jpg</t>
-  </si>
-  <si>
-    <t>노르딕내추럴스 오메가 우먼 달맞이꽃 오일 레몬맛 120 소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/10/08/1000000235/1000000235_main_054.jpg</t>
-  </si>
-  <si>
-    <t>솔가 오메가3 피쉬오일 콘센트레이트 120소프트겔</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/03/1000000737/1000000737_main_091.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 DHA 500mg 90소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000918/1000000918_main_048.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 징코 빌로바 120mg 200캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/25/1000002881/1000002881_main_022.jpg</t>
-  </si>
-  <si>
-    <t>솔가 포스파티딜 세린 200mg 60소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/25/1000000260/1000000260_main_078.jpg</t>
-  </si>
-  <si>
-    <t>나트롤 오메가 369 콤플렉스 90소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/11/47/1000003004/1000003004_main_069.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 NAC 600mg 100캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/08/35/1000003050/1000002773_main_039.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/12/49/1000002959/1000002959_main_01.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 로얄젤리 1000mg 60소프트젤</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/06/23/1000002863/1000002863_main_038.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 콜린 이노시톨 250/250mg 100캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001207/1000001207_main_087.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 오메가 3 500소프트젤</t>
   </si>
   <si>
     <t>상품명</t>
@@ -1095,20 +1026,20 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,136 +1175,40 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>17800</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>33500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14600</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1">
-        <v>22000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1">
-        <v>32100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1">
-        <v>65500</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1">
-        <v>16800</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1">
-        <v>35500</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>48900</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1">
-        <v>18400</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="1">
-        <v>12800</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1">
-        <v>38400</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
